--- a/wzrv/expdata/2016.xlsx
+++ b/wzrv/expdata/2016.xlsx
@@ -5,18 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B413A6-D078-C84E-96C3-F01E6A4173DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B389B317-BD86-984F-B306-18BA5F70F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -48,9 +57,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -63,19 +69,22 @@
     <t>col</t>
   </si>
   <si>
-    <t>W</t>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>LHCb(mu)(2014)</t>
+  </si>
+  <si>
+    <t>W+</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
   <si>
     <t>A_eta_mu</t>
-  </si>
-  <si>
-    <t>eta</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>LHCb(mu)(2014)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +408,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,19 +442,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -462,28 +471,28 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
-        <v>0.26740000000000003</v>
+        <v>0.26739999999999997</v>
       </c>
       <c r="G2" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="H2" s="1">
-        <v>8.2000000000000007E-3</v>
+        <v>8.199999999999999E-3</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -500,28 +509,28 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>0.26079999999999998</v>
       </c>
       <c r="G3" s="1">
-        <v>4.1000000000000003E-3</v>
+        <v>4.0999999999999995E-3</v>
       </c>
       <c r="H3" s="1">
         <v>1.09E-2</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -538,7 +547,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>0.23250000000000001</v>
@@ -550,16 +559,16 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -576,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>0.16259999999999999</v>
+        <v>0.16260000000000002</v>
       </c>
       <c r="G5" s="1">
         <v>4.5999999999999999E-3</v>
@@ -588,16 +597,16 @@
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -614,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>7.8100000000000003E-2</v>
@@ -623,19 +632,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -652,28 +661,28 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
         <v>-5.3699999999999998E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>5.7000000000000002E-3</v>
+        <v>5.6999999999999993E-3</v>
       </c>
       <c r="H7" s="1">
-        <v>1.35E-2</v>
+        <v>1.3500000000000002E-2</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -690,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>-0.23039999999999999</v>
@@ -702,16 +711,16 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -728,28 +737,28 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>-0.50649999999999995</v>
       </c>
       <c r="G9" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>1.2199999999999999E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2016.xlsx
+++ b/wzrv/expdata/2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B389B317-BD86-984F-B306-18BA5F70F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C52BEEA-1214-8645-B644-BF745CDAA414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,10 +81,10 @@
     <t>W+</t>
   </si>
   <si>
-    <t>syst_c</t>
-  </si>
-  <si>
     <t>A_eta_mu</t>
+  </si>
+  <si>
+    <t>syst_u</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -483,7 +483,7 @@
         <v>8.199999999999999E-3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -521,7 +521,7 @@
         <v>1.09E-2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -559,7 +559,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -597,7 +597,7 @@
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>11</v>
@@ -635,7 +635,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>11</v>
@@ -673,7 +673,7 @@
         <v>1.3500000000000002E-2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
@@ -711,7 +711,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>11</v>
@@ -749,7 +749,7 @@
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>11</v>

--- a/wzrv/expdata/2016.xlsx
+++ b/wzrv/expdata/2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C52BEEA-1214-8645-B644-BF745CDAA414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CAB8D0-F061-C746-98F0-E75581F585CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>cms</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>syst_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -405,21 +408,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1"/>
-    <col min="12" max="12" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1013" max="1024" width="10.5" customWidth="1"/>
+    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1"/>
+    <col min="13" max="13" width="17.1640625" style="1" customWidth="1"/>
+    <col min="1014" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,31 +436,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -470,32 +476,35 @@
       <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.26739999999999997</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -508,32 +517,35 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.26079999999999998</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1.09E-2</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -546,32 +558,35 @@
       <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.23250000000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -584,32 +599,35 @@
       <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.16260000000000002</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -622,32 +640,35 @@
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -660,32 +681,35 @@
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>-5.3699999999999998E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>5.6999999999999993E-3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1.3500000000000002E-2</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -698,32 +722,35 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>-0.23039999999999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
@@ -736,28 +763,31 @@
       <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>-0.50649999999999995</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1.2199999999999999E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/wzrv/expdata/2016.xlsx
+++ b/wzrv/expdata/2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CAB8D0-F061-C746-98F0-E75581F585CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEBD86-1C1F-434D-B407-BB2BA98804DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -518,7 +518,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -559,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -641,7 +641,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -682,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -723,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -764,7 +764,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>

--- a/wzrv/expdata/2016.xlsx
+++ b/wzrv/expdata/2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEBD86-1C1F-434D-B407-BB2BA98804DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF317B74-D969-3649-BF8C-72A00C210F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>cms</t>
   </si>
@@ -85,22 +85,26 @@
   </si>
   <si>
     <t>syst_u</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,9 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,387 +415,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1"/>
-    <col min="13" max="13" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1014" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1"/>
+    <col min="3" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1013" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
         <v>7000</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>2.25</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.26739999999999997</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
         <v>7000</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D4" s="1">
         <v>2.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="F4" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
-        <v>70</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.26079999999999998</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.0999999999999995E-3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.09E-2</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H4" s="1">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="C5" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.16260000000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
         <v>7000</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="H6" s="1">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="C7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-5.3699999999999998E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.6999999999999993E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.3500000000000002E-2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
         <v>7000</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
-        <v>70</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.16260000000000002</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="I5" s="1">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="H8" s="1">
+        <v>-0.23039999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="C9" s="1">
         <v>7000</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="H9" s="1">
+        <v>-0.50649999999999995</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-5.3699999999999998E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5.6999999999999993E-3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.3500000000000002E-2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>70</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-0.23039999999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-0.50649999999999995</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.2199999999999999E-2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
